--- a/data/Public Availability 2019.xlsx
+++ b/data/Public Availability 2019.xlsx
@@ -287,7 +287,7 @@
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
-    <t xml:space="preserve">North Macedonia</t>
+    <t xml:space="preserve">Macedonia</t>
   </si>
   <si>
     <t xml:space="preserve">Norway</t>
@@ -422,9 +422,6 @@
     <t xml:space="preserve">Zimbabwe</t>
   </si>
   <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Swaziland</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t xml:space="preserve">ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
   </si>
 </sst>
 </file>
@@ -575,8 +575,8 @@
   </sheetPr>
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A118"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4032,7 +4032,7 @@
   <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="A2:A118 B22"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5644,7 +5644,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>10</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>15</v>
@@ -7430,7 +7430,7 @@
   <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="1" sqref="A2:A118 C41"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7775,7 +7775,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>25</v>
@@ -7856,7 +7856,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>11</v>
@@ -7868,16 +7868,16 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7917,7 +7917,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>14</v>
@@ -8378,7 +8378,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>11</v>
@@ -8445,7 +8445,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>11</v>
@@ -8839,7 +8839,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>14</v>
@@ -8874,7 +8874,7 @@
         <v>10</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>14</v>
@@ -9211,7 +9211,7 @@
         <v>11</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9219,7 +9219,7 @@
         <v>84</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>25</v>
@@ -9437,7 +9437,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>11</v>
@@ -10408,7 +10408,7 @@
         <v>130</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>11</v>
@@ -10451,7 +10451,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="1" sqref="A2:A118 C41"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11831,7 +11831,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>14</v>
@@ -12585,7 +12585,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>15</v>
@@ -13414,7 +13414,7 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="1" sqref="A2:A118 C41"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>14</v>
@@ -15461,7 +15461,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>14</v>
@@ -16203,7 +16203,7 @@
   <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="1" sqref="A2:A118 C41"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17467,7 +17467,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>14</v>
@@ -18076,7 +18076,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>15</v>
@@ -18731,7 +18731,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C41" activeCellId="1" sqref="A2:A118 C41"/>
+      <selection pane="topLeft" activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20505,7 +20505,7 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A118 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20518,28 +20518,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>141</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22342,7 +22342,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>11</v>
